--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -329,81 +329,81 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>流程模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBySecNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND SecNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RejectReason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管退回原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>1.登錄 2.放行 3.審核 4.審核放行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄需提交記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.否 1.是 (限二段式交易使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND FlowBrNo = ,AND FlowMode = ,AND TranNo % ,AND FlowGroupNo ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>FlowMode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>流程模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findBySecNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy = ,AND SecNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RejectReason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主管退回原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>1.登錄 2.放行 3.審核 4.審核放行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.待放行 2.待審核 3.待送出 9.已結案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登錄需提交記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.否 1.是 (限二段式交易使用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy = ,AND FlowBrNo = ,AND FlowMode = ,AND TranNo % ,AND FlowGroupNo ^i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubmitFg</t>
+    <t>1.待放行 2.待審核 3.待提交 9.已結案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +931,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,10 +1159,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>16</v>
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1396,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -1456,16 +1456,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="E30" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
@@ -1476,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>16</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1621,7 +1621,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
@@ -931,7 +931,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -265,145 +265,145 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>審核單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程科組別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND FlowBrNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockCustNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖定借款人戶號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖定序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimalL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcCnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳務筆數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByLC003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBySecNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND SecNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管退回原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>1.登錄 2.放行 3.審核 4.審核放行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄需提交記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.否 1.是 (限二段式交易使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND FlowBrNo = ,AND FlowMode = ,AND TranNo % ,AND FlowGroupNo ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待放行 2.待審核 3.待提交 9.已結案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>登錄單位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>審核單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程科組別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy = ,AND FlowBrNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockCustNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鎖定借款人戶號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鎖定序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimalL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcCnt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳務筆數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByLC003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findBySecNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy = ,AND SecNo =</t>
+    <t>FlowMode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RejectReason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主管退回原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>1.登錄 2.放行 3.審核 4.審核放行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登錄需提交記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.否 1.是 (限二段式交易使用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy = ,AND FlowBrNo = ,AND FlowMode = ,AND TranNo % ,AND FlowGroupNo ^i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubmitFg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlowMode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.待放行 2.待審核 3.待提交 9.已結案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +931,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="G8" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
         <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>16</v>
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>15</v>
@@ -1219,7 +1219,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>15</v>
@@ -1255,7 +1255,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>15</v>
@@ -1273,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>15</v>
@@ -1360,16 +1360,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1378,16 +1378,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>75</v>
-      </c>
       <c r="E26" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1396,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -1436,16 +1436,16 @@
         <v>21</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
@@ -1456,16 +1456,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="E30" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>87</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
@@ -1476,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>16</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1610,7 +1610,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>53</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -325,85 +325,85 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>SecNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBySecNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND SecNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管退回原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>1.登錄 2.放行 3.審核 4.審核放行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄需提交記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.否 1.是 (限二段式交易使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy = ,AND FlowBrNo = ,AND FlowMode = ,AND TranNo % ,AND FlowGroupNo ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RejectReason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待放行 2.待審核 3.待提交 9.已結案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>流程模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SecNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findBySecNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy = ,AND SecNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主管退回原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>1.登錄 2.放行 3.審核 4.審核放行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登錄需提交記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.否 1.是 (限二段式交易使用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entdy = ,AND FlowBrNo = ,AND FlowMode = ,AND TranNo % ,AND FlowGroupNo ^i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubmitFg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.待放行 2.待審核 3.待提交 9.已結案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登錄單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FlowMode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RejectReason</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +931,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,10 +1159,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>16</v>
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>15</v>
@@ -1396,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -1456,16 +1456,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C30" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="E30" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>85</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
@@ -1476,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>16</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1621,7 +1621,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
